--- a/api/datasets/patient_records_small.xlsx
+++ b/api/datasets/patient_records_small.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laansdole/Projects/RAG-Anything/api/datasets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A6D355-C821-CB4A-8330-B22BE43544B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1288,8 +1294,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1352,13 +1358,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1396,7 +1410,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1430,6 +1444,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1464,9 +1479,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1639,14 +1655,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1678,7 +1706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1710,7 +1738,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1742,7 +1770,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1774,7 +1802,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1806,7 +1834,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1838,7 +1866,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1870,7 +1898,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1902,7 +1930,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1934,7 +1962,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1966,7 +1994,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1998,7 +2026,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2030,7 +2058,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2062,7 +2090,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2094,7 +2122,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2126,7 +2154,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2158,7 +2186,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2190,7 +2218,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2222,7 +2250,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2254,7 +2282,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2286,7 +2314,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2318,7 +2346,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2350,7 +2378,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2382,7 +2410,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2414,7 +2442,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2446,7 +2474,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2478,7 +2506,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2510,7 +2538,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2542,7 +2570,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2574,7 +2602,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2606,7 +2634,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2638,7 +2666,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2670,7 +2698,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2702,7 +2730,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -2734,7 +2762,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2766,7 +2794,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2798,7 +2826,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -2830,7 +2858,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -2862,7 +2890,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -2894,7 +2922,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -2926,7 +2954,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -2958,7 +2986,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -2990,7 +3018,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -3022,7 +3050,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -3054,7 +3082,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -3086,7 +3114,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -3118,7 +3146,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -3150,7 +3178,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -3182,7 +3210,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -3214,7 +3242,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -3246,7 +3274,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -3278,7 +3306,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -3310,7 +3338,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -3342,7 +3370,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -3374,7 +3402,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -3406,7 +3434,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -3438,7 +3466,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -3470,7 +3498,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -3502,7 +3530,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -3534,7 +3562,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -3566,7 +3594,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -3598,7 +3626,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -3630,7 +3658,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -3662,7 +3690,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -3694,7 +3722,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -3726,7 +3754,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -3758,7 +3786,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -3790,7 +3818,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -3822,7 +3850,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -3854,7 +3882,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -3886,7 +3914,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -3918,7 +3946,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -3950,7 +3978,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -3982,7 +4010,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -4014,7 +4042,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -4046,7 +4074,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -4078,7 +4106,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -4110,7 +4138,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -4142,7 +4170,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -4174,7 +4202,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>88</v>
       </c>
@@ -4206,7 +4234,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>89</v>
       </c>
@@ -4238,7 +4266,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -4270,7 +4298,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -4302,7 +4330,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -4334,7 +4362,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -4366,7 +4394,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -4398,7 +4426,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -4430,7 +4458,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -4462,7 +4490,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -4494,7 +4522,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -4526,7 +4554,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>99</v>
       </c>
@@ -4558,7 +4586,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>100</v>
       </c>
@@ -4590,7 +4618,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>101</v>
       </c>
@@ -4622,7 +4650,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>102</v>
       </c>
@@ -4654,7 +4682,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>103</v>
       </c>
@@ -4686,7 +4714,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>104</v>
       </c>
@@ -4718,7 +4746,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>105</v>
       </c>
@@ -4750,7 +4778,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>106</v>
       </c>
@@ -4782,7 +4810,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>107</v>
       </c>
@@ -4814,7 +4842,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>108</v>
       </c>
@@ -4846,7 +4874,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>109</v>
       </c>
@@ -4878,7 +4906,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>110</v>
       </c>
@@ -4910,7 +4938,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>111</v>
       </c>
@@ -4942,7 +4970,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>112</v>
       </c>
@@ -4974,7 +5002,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -5006,7 +5034,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>114</v>
       </c>
@@ -5038,7 +5066,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -5070,7 +5098,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -5102,7 +5130,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>117</v>
       </c>
@@ -5134,7 +5162,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>118</v>
       </c>
@@ -5166,7 +5194,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>119</v>
       </c>
@@ -5198,7 +5226,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>120</v>
       </c>
@@ -5230,7 +5258,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>121</v>
       </c>
@@ -5262,7 +5290,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>122</v>
       </c>
@@ -5294,7 +5322,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>123</v>
       </c>
@@ -5326,7 +5354,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>124</v>
       </c>
@@ -5358,7 +5386,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>125</v>
       </c>
@@ -5390,7 +5418,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>126</v>
       </c>
@@ -5422,7 +5450,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>127</v>
       </c>
@@ -5454,7 +5482,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>128</v>
       </c>
@@ -5486,7 +5514,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>129</v>
       </c>
@@ -5518,7 +5546,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>130</v>
       </c>
@@ -5550,7 +5578,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>131</v>
       </c>
@@ -5582,7 +5610,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>132</v>
       </c>
@@ -5614,7 +5642,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>133</v>
       </c>
@@ -5646,7 +5674,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>134</v>
       </c>
@@ -5678,7 +5706,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>135</v>
       </c>
@@ -5710,7 +5738,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>136</v>
       </c>
@@ -5742,7 +5770,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>137</v>
       </c>
@@ -5774,7 +5802,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>138</v>
       </c>
@@ -5806,7 +5834,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>139</v>
       </c>
@@ -5838,7 +5866,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>140</v>
       </c>
@@ -5870,7 +5898,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>141</v>
       </c>
@@ -5902,7 +5930,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>142</v>
       </c>
@@ -5934,7 +5962,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>143</v>
       </c>
@@ -5966,7 +5994,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -5998,7 +6026,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>145</v>
       </c>
@@ -6030,7 +6058,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>146</v>
       </c>
@@ -6062,7 +6090,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>147</v>
       </c>
@@ -6094,7 +6122,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>148</v>
       </c>
@@ -6126,7 +6154,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>149</v>
       </c>
@@ -6158,7 +6186,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>150</v>
       </c>
@@ -6190,7 +6218,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>151</v>
       </c>
@@ -6222,7 +6250,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>152</v>
       </c>
@@ -6254,7 +6282,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>153</v>
       </c>
@@ -6286,7 +6314,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>154</v>
       </c>
@@ -6318,7 +6346,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>155</v>
       </c>
@@ -6350,7 +6378,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>156</v>
       </c>
@@ -6382,7 +6410,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>157</v>
       </c>
@@ -6414,7 +6442,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>158</v>
       </c>
@@ -6446,7 +6474,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>159</v>
       </c>
@@ -6478,7 +6506,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>160</v>
       </c>
@@ -6510,7 +6538,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>161</v>
       </c>
@@ -6542,7 +6570,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>162</v>
       </c>
@@ -6574,7 +6602,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>163</v>
       </c>
@@ -6606,7 +6634,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>164</v>
       </c>
@@ -6638,7 +6666,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>165</v>
       </c>
@@ -6670,7 +6698,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>166</v>
       </c>
@@ -6702,7 +6730,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>167</v>
       </c>
@@ -6734,7 +6762,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -6766,7 +6794,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>169</v>
       </c>
@@ -6798,7 +6826,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>170</v>
       </c>
@@ -6830,7 +6858,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>171</v>
       </c>
@@ -6862,7 +6890,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>172</v>
       </c>
@@ -6894,7 +6922,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>173</v>
       </c>
@@ -6926,7 +6954,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>174</v>
       </c>
@@ -6958,7 +6986,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>175</v>
       </c>
@@ -6990,7 +7018,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>176</v>
       </c>
@@ -7022,7 +7050,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>177</v>
       </c>
@@ -7054,7 +7082,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>178</v>
       </c>
@@ -7086,7 +7114,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>179</v>
       </c>
@@ -7118,7 +7146,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>180</v>
       </c>
@@ -7150,7 +7178,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>181</v>
       </c>
@@ -7182,7 +7210,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>182</v>
       </c>
@@ -7214,7 +7242,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>183</v>
       </c>
@@ -7246,7 +7274,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>184</v>
       </c>
@@ -7278,7 +7306,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>185</v>
       </c>
@@ -7310,7 +7338,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>186</v>
       </c>
@@ -7342,7 +7370,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>187</v>
       </c>
@@ -7374,7 +7402,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>188</v>
       </c>
@@ -7406,7 +7434,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>189</v>
       </c>
@@ -7438,7 +7466,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -7470,7 +7498,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>191</v>
       </c>
@@ -7502,7 +7530,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>192</v>
       </c>
@@ -7534,7 +7562,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>193</v>
       </c>
@@ -7566,7 +7594,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>194</v>
       </c>
@@ -7598,7 +7626,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>195</v>
       </c>
@@ -7630,7 +7658,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>196</v>
       </c>
@@ -7662,7 +7690,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>197</v>
       </c>
@@ -7694,7 +7722,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>198</v>
       </c>
@@ -7726,7 +7754,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>199</v>
       </c>
@@ -7758,7 +7786,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>200</v>
       </c>
@@ -7790,7 +7818,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>201</v>
       </c>
@@ -7822,7 +7850,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>202</v>
       </c>
@@ -7854,7 +7882,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>203</v>
       </c>
@@ -7886,7 +7914,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>204</v>
       </c>
@@ -7918,7 +7946,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>205</v>
       </c>
@@ -7950,7 +7978,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>206</v>
       </c>
@@ -7982,7 +8010,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>207</v>
       </c>
@@ -8014,7 +8042,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>208</v>
       </c>
@@ -8046,7 +8074,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>209</v>
       </c>
@@ -8081,4 +8109,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{ddaa77bc-0157-46a4-82a6-8fc765694bc9}" enabled="1" method="Standard" siteId="{d1323671-cdbe-4417-b4d4-bdb24b51316b}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>